--- a/model data.xlsx
+++ b/model data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDEC7E6-A764-4E52-8EA9-E45EB74751A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACA1C3C-7DA4-4DEB-90B3-FF7E2DEA7769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="95">
   <si>
     <t>Source</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -292,9 +292,6 @@
     <t>Malaysia Railway Station</t>
   </si>
   <si>
-    <t>Railway Authority</t>
-  </si>
-  <si>
     <t>Port/Airport/Rail Handling time (hours)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,10 +316,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Freight Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Port/Airport/Rail Handling Cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +329,38 @@
   </si>
   <si>
     <t>CustomClearance time (hours)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journey Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domestic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shanghai Railway Station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wuxi Railway Station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Railway Authority</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed Freight Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transit Duty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +425,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,9 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -467,6 +495,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -818,15 +849,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X51"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="70" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -845,62 +876,65 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="P1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -939,28 +973,28 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="O2" s="1">
         <v>24</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>48</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
       <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
         <v>120</v>
       </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
       <c r="S2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="1">
         <v>0</v>
@@ -971,8 +1005,11 @@
       <c r="X2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1011,28 +1048,28 @@
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O3" s="1">
         <v>24</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>48</v>
       </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
       <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
         <v>120</v>
       </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="1">
         <v>0</v>
@@ -1043,8 +1080,11 @@
       <c r="X3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1083,40 +1123,43 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
         <v>24</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>48</v>
       </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
       <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
         <v>24</v>
       </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
       <c r="S4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1155,40 +1198,43 @@
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O5" s="1">
         <v>24</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>48</v>
       </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
       <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
         <v>24</v>
       </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
       <c r="S5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1227,41 +1273,44 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
         <v>24</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>48</v>
       </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
       <c r="Q6" s="1">
-        <f>Q3-24</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <f>R3-24</f>
         <v>96</v>
       </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1300,40 +1349,43 @@
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="O7" s="1">
         <v>24</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>48</v>
       </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
       <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
         <v>96</v>
       </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
       <c r="S7" s="1">
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1371,41 +1423,44 @@
         <v>0</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="8">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
         <v>24</v>
       </c>
-      <c r="O8" s="8">
+      <c r="P8" s="8">
         <v>48</v>
       </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
         <v>5</v>
       </c>
-      <c r="R8" s="8">
-        <v>1</v>
-      </c>
       <c r="S8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1443,41 +1498,44 @@
         <v>0</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="8">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
         <v>24</v>
       </c>
-      <c r="O9" s="8">
+      <c r="P9" s="8">
         <v>48</v>
       </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
         <v>5</v>
       </c>
-      <c r="R9" s="8">
-        <v>1</v>
-      </c>
       <c r="S9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1517,20 +1575,20 @@
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="O10" s="1">
         <v>24</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>8</v>
       </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
       <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
         <v>5</v>
       </c>
-      <c r="R10" s="1">
-        <v>1</v>
-      </c>
       <c r="S10" s="1">
         <v>1</v>
       </c>
@@ -1549,8 +1607,11 @@
       <c r="X10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1590,20 +1651,20 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O11" s="1">
         <v>24</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>8</v>
       </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
       <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
         <v>5</v>
       </c>
-      <c r="R11" s="1">
-        <v>1</v>
-      </c>
       <c r="S11" s="1">
         <v>1</v>
       </c>
@@ -1622,8 +1683,11 @@
       <c r="X11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1664,20 +1728,20 @@
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
         <v>24</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>8</v>
       </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
       <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
         <v>2</v>
       </c>
-      <c r="R12" s="1">
-        <v>1</v>
-      </c>
       <c r="S12" s="1">
         <v>1</v>
       </c>
@@ -1696,8 +1760,11 @@
       <c r="X12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1738,20 +1805,20 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O13" s="1">
         <v>24</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>8</v>
       </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
       <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
         <v>2</v>
       </c>
-      <c r="R13" s="1">
-        <v>1</v>
-      </c>
       <c r="S13" s="1">
         <v>1</v>
       </c>
@@ -1770,8 +1837,11 @@
       <c r="X13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1812,20 +1882,20 @@
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
         <v>24</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>8</v>
       </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
       <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
         <v>4.5</v>
       </c>
-      <c r="R14" s="1">
-        <v>1</v>
-      </c>
       <c r="S14" s="1">
         <v>1</v>
       </c>
@@ -1844,8 +1914,11 @@
       <c r="X14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1886,20 +1959,20 @@
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="O15" s="1">
         <v>24</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>8</v>
       </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
       <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
         <v>4.5</v>
       </c>
-      <c r="R15" s="1">
-        <v>1</v>
-      </c>
       <c r="S15" s="1">
         <v>1</v>
       </c>
@@ -1918,8 +1991,11 @@
       <c r="X15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1958,20 +2034,20 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="O16" s="1">
         <v>24</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>8</v>
       </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
       <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
         <v>7</v>
       </c>
-      <c r="R16" s="1">
-        <v>1</v>
-      </c>
       <c r="S16" s="1">
         <v>1</v>
       </c>
@@ -1990,8 +2066,11 @@
       <c r="X16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2030,20 +2109,20 @@
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O17" s="1">
         <v>24</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>8</v>
       </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
       <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
         <v>7</v>
       </c>
-      <c r="R17" s="1">
-        <v>1</v>
-      </c>
       <c r="S17" s="1">
         <v>1</v>
       </c>
@@ -2062,8 +2141,11 @@
       <c r="X17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2102,20 +2184,20 @@
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="O18" s="1">
         <v>24</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>8</v>
       </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
       <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
         <v>6.5</v>
       </c>
-      <c r="R18" s="1">
-        <v>1</v>
-      </c>
       <c r="S18" s="1">
         <v>1</v>
       </c>
@@ -2134,8 +2216,11 @@
       <c r="X18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2174,20 +2259,20 @@
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
         <v>24</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>8</v>
       </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
       <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
         <v>6.5</v>
       </c>
-      <c r="R19" s="1">
-        <v>1</v>
-      </c>
       <c r="S19" s="1">
         <v>1</v>
       </c>
@@ -2206,22 +2291,25 @@
       <c r="X19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="28" x14ac:dyDescent="0.3">
+      <c r="Y19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>73</v>
+      <c r="B20" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="1">
+        <v>91</v>
+      </c>
+      <c r="D20" s="5">
         <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>32</v>
@@ -2245,21 +2333,21 @@
         <v>0</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="5">
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
         <v>24</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="1">
         <v>24</v>
       </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
       <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
         <v>36</v>
       </c>
-      <c r="R20" s="1">
-        <v>1</v>
-      </c>
       <c r="S20" s="1">
         <v>1</v>
       </c>
@@ -2278,22 +2366,25 @@
       <c r="X20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="28" x14ac:dyDescent="0.3">
+      <c r="Y20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="1">
+        <v>91</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="5">
         <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>32</v>
@@ -2317,21 +2408,21 @@
         <v>0</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="5">
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
         <v>24</v>
       </c>
-      <c r="O21" s="5">
+      <c r="P21" s="1">
         <v>24</v>
       </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
       <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
         <v>36</v>
       </c>
-      <c r="R21" s="1">
-        <v>1</v>
-      </c>
       <c r="S21" s="1">
         <v>1</v>
       </c>
@@ -2350,8 +2441,11 @@
       <c r="X21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2389,21 +2483,21 @@
         <v>0</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="N22" s="5">
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
         <v>24</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>48</v>
       </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
       <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
         <v>96</v>
       </c>
-      <c r="R22" s="5">
-        <v>1</v>
-      </c>
       <c r="S22" s="5">
         <v>1</v>
       </c>
@@ -2411,19 +2505,22 @@
         <v>1</v>
       </c>
       <c r="U22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="5">
         <v>0</v>
       </c>
       <c r="W22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2461,21 +2558,21 @@
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="5">
+      <c r="N23" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O23" s="5">
         <v>24</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>48</v>
       </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
       <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
         <v>96</v>
       </c>
-      <c r="R23" s="5">
-        <v>1</v>
-      </c>
       <c r="S23" s="5">
         <v>1</v>
       </c>
@@ -2483,19 +2580,22 @@
         <v>1</v>
       </c>
       <c r="U23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="5">
         <v>0</v>
       </c>
       <c r="W23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2533,23 +2633,23 @@
         <v>0</v>
       </c>
       <c r="M24" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
         <v>4</v>
       </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
       <c r="P24" s="1">
         <v>0</v>
       </c>
       <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
         <v>2</v>
       </c>
-      <c r="R24" s="1">
-        <v>1</v>
-      </c>
       <c r="S24" s="1">
         <v>1</v>
       </c>
@@ -2568,8 +2668,11 @@
       <c r="X24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2608,20 +2711,20 @@
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
         <v>4</v>
       </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
       <c r="P25" s="1">
         <v>0</v>
       </c>
       <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
         <v>2</v>
       </c>
-      <c r="R25" s="1">
-        <v>1</v>
-      </c>
       <c r="S25" s="1">
         <v>1</v>
       </c>
@@ -2640,8 +2743,11 @@
       <c r="X25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2679,23 +2785,23 @@
         <v>0</v>
       </c>
       <c r="M26" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
         <v>4</v>
       </c>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
       <c r="P26" s="1">
         <v>0</v>
       </c>
       <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
         <v>2</v>
       </c>
-      <c r="R26" s="1">
-        <v>1</v>
-      </c>
       <c r="S26" s="1">
         <v>1</v>
       </c>
@@ -2714,8 +2820,11 @@
       <c r="X26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2754,20 +2863,20 @@
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
         <v>4</v>
       </c>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
       <c r="P27" s="1">
         <v>0</v>
       </c>
       <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
         <v>2</v>
       </c>
-      <c r="R27" s="1">
-        <v>1</v>
-      </c>
       <c r="S27" s="1">
         <v>1</v>
       </c>
@@ -2786,8 +2895,11 @@
       <c r="X27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2825,23 +2937,23 @@
         <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
         <v>4</v>
       </c>
-      <c r="O28" s="1">
-        <v>0</v>
-      </c>
       <c r="P28" s="1">
         <v>0</v>
       </c>
       <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
         <v>2</v>
       </c>
-      <c r="R28" s="1">
-        <v>1</v>
-      </c>
       <c r="S28" s="1">
         <v>1</v>
       </c>
@@ -2860,8 +2972,11 @@
       <c r="X28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2900,20 +3015,20 @@
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
         <v>4</v>
       </c>
-      <c r="O29" s="1">
-        <v>0</v>
-      </c>
       <c r="P29" s="1">
         <v>0</v>
       </c>
       <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
         <v>2</v>
       </c>
-      <c r="R29" s="1">
-        <v>1</v>
-      </c>
       <c r="S29" s="1">
         <v>1</v>
       </c>
@@ -2932,8 +3047,11 @@
       <c r="X29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2971,23 +3089,23 @@
         <v>0</v>
       </c>
       <c r="M30" s="5">
-        <v>100</v>
-      </c>
-      <c r="N30" s="1">
+        <v>10</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
         <v>4</v>
       </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
       <c r="P30" s="1">
         <v>0</v>
       </c>
       <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
         <v>3</v>
       </c>
-      <c r="R30" s="1">
-        <v>1</v>
-      </c>
       <c r="S30" s="1">
         <v>1</v>
       </c>
@@ -3006,8 +3124,11 @@
       <c r="X30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3045,21 +3166,21 @@
         <v>0</v>
       </c>
       <c r="M31" s="5"/>
-      <c r="N31" s="1">
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
         <v>4</v>
       </c>
-      <c r="O31" s="1">
-        <v>0</v>
-      </c>
       <c r="P31" s="1">
         <v>0</v>
       </c>
       <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
         <v>3</v>
       </c>
-      <c r="R31" s="1">
-        <v>1</v>
-      </c>
       <c r="S31" s="1">
         <v>1</v>
       </c>
@@ -3078,8 +3199,11 @@
       <c r="X31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3117,23 +3241,23 @@
         <v>0</v>
       </c>
       <c r="M32" s="5">
-        <v>100</v>
-      </c>
-      <c r="N32" s="1">
+        <v>10</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
         <v>4</v>
       </c>
-      <c r="O32" s="1">
-        <v>0</v>
-      </c>
       <c r="P32" s="1">
         <v>0</v>
       </c>
       <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
         <v>3</v>
       </c>
-      <c r="R32" s="1">
-        <v>1</v>
-      </c>
       <c r="S32" s="1">
         <v>1</v>
       </c>
@@ -3152,8 +3276,11 @@
       <c r="X32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3191,21 +3318,21 @@
         <v>0</v>
       </c>
       <c r="M33" s="5"/>
-      <c r="N33" s="1">
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
         <v>4</v>
       </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
       <c r="P33" s="1">
         <v>0</v>
       </c>
       <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
         <v>3</v>
       </c>
-      <c r="R33" s="1">
-        <v>1</v>
-      </c>
       <c r="S33" s="1">
         <v>1</v>
       </c>
@@ -3224,8 +3351,11 @@
       <c r="X33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3263,23 +3393,23 @@
         <v>0</v>
       </c>
       <c r="M34" s="5">
-        <v>100</v>
-      </c>
-      <c r="N34" s="1">
+        <v>10</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
         <v>4</v>
       </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
       <c r="P34" s="1">
         <v>0</v>
       </c>
       <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
         <v>3</v>
       </c>
-      <c r="R34" s="1">
-        <v>1</v>
-      </c>
       <c r="S34" s="1">
         <v>1</v>
       </c>
@@ -3298,8 +3428,11 @@
       <c r="X34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3337,21 +3470,21 @@
         <v>0</v>
       </c>
       <c r="M35" s="5"/>
-      <c r="N35" s="1">
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
         <v>4</v>
       </c>
-      <c r="O35" s="1">
-        <v>0</v>
-      </c>
       <c r="P35" s="1">
         <v>0</v>
       </c>
       <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
         <v>3</v>
       </c>
-      <c r="R35" s="1">
-        <v>1</v>
-      </c>
       <c r="S35" s="1">
         <v>1</v>
       </c>
@@ -3370,8 +3503,11 @@
       <c r="X35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3409,23 +3545,23 @@
         <v>0</v>
       </c>
       <c r="M36" s="1">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
         <v>4</v>
       </c>
-      <c r="O36" s="1">
-        <v>0</v>
-      </c>
       <c r="P36" s="1">
         <v>0</v>
       </c>
       <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
         <v>3</v>
       </c>
-      <c r="R36" s="1">
-        <v>1</v>
-      </c>
       <c r="S36" s="1">
         <v>1</v>
       </c>
@@ -3444,8 +3580,11 @@
       <c r="X36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3484,20 +3623,20 @@
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
         <v>4</v>
       </c>
-      <c r="O37" s="1">
-        <v>0</v>
-      </c>
       <c r="P37" s="1">
         <v>0</v>
       </c>
       <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
         <v>3</v>
       </c>
-      <c r="R37" s="1">
-        <v>1</v>
-      </c>
       <c r="S37" s="1">
         <v>1</v>
       </c>
@@ -3516,8 +3655,11 @@
       <c r="X37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3555,23 +3697,23 @@
         <v>0</v>
       </c>
       <c r="M38" s="1">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
         <v>4</v>
       </c>
-      <c r="O38" s="1">
-        <v>0</v>
-      </c>
       <c r="P38" s="1">
         <v>0</v>
       </c>
       <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
         <v>3</v>
       </c>
-      <c r="R38" s="1">
-        <v>1</v>
-      </c>
       <c r="S38" s="1">
         <v>1</v>
       </c>
@@ -3590,8 +3732,11 @@
       <c r="X38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3630,20 +3775,20 @@
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
         <v>4</v>
       </c>
-      <c r="O39" s="1">
-        <v>0</v>
-      </c>
       <c r="P39" s="1">
         <v>0</v>
       </c>
       <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
         <v>3</v>
       </c>
-      <c r="R39" s="1">
-        <v>1</v>
-      </c>
       <c r="S39" s="1">
         <v>1</v>
       </c>
@@ -3662,8 +3807,11 @@
       <c r="X39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3701,23 +3849,23 @@
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
         <v>4</v>
       </c>
-      <c r="O40" s="1">
-        <v>0</v>
-      </c>
       <c r="P40" s="1">
         <v>0</v>
       </c>
       <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
         <v>3</v>
       </c>
-      <c r="R40" s="1">
-        <v>1</v>
-      </c>
       <c r="S40" s="1">
         <v>1</v>
       </c>
@@ -3736,8 +3884,11 @@
       <c r="X40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3776,20 +3927,20 @@
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
         <v>4</v>
       </c>
-      <c r="O41" s="1">
-        <v>0</v>
-      </c>
       <c r="P41" s="1">
         <v>0</v>
       </c>
       <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
         <v>3</v>
       </c>
-      <c r="R41" s="1">
-        <v>1</v>
-      </c>
       <c r="S41" s="1">
         <v>1</v>
       </c>
@@ -3808,8 +3959,11 @@
       <c r="X41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3847,23 +4001,23 @@
         <v>0</v>
       </c>
       <c r="M42" s="1">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
         <v>4</v>
       </c>
-      <c r="O42" s="1">
-        <v>0</v>
-      </c>
       <c r="P42" s="1">
         <v>0</v>
       </c>
       <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
         <v>3</v>
       </c>
-      <c r="R42" s="1">
-        <v>1</v>
-      </c>
       <c r="S42" s="1">
         <v>1</v>
       </c>
@@ -3882,8 +4036,11 @@
       <c r="X42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3922,20 +4079,20 @@
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
         <v>4</v>
       </c>
-      <c r="O43" s="1">
-        <v>0</v>
-      </c>
       <c r="P43" s="1">
         <v>0</v>
       </c>
       <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
         <v>3</v>
       </c>
-      <c r="R43" s="1">
-        <v>1</v>
-      </c>
       <c r="S43" s="1">
         <v>1</v>
       </c>
@@ -3954,8 +4111,11 @@
       <c r="X43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3993,23 +4153,23 @@
         <v>0</v>
       </c>
       <c r="M44" s="1">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
         <v>4</v>
       </c>
-      <c r="O44" s="1">
-        <v>0</v>
-      </c>
       <c r="P44" s="1">
         <v>0</v>
       </c>
       <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
         <v>3</v>
       </c>
-      <c r="R44" s="1">
-        <v>1</v>
-      </c>
       <c r="S44" s="1">
         <v>1</v>
       </c>
@@ -4028,8 +4188,11 @@
       <c r="X44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4068,20 +4231,20 @@
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
         <v>4</v>
       </c>
-      <c r="O45" s="1">
-        <v>0</v>
-      </c>
       <c r="P45" s="1">
         <v>0</v>
       </c>
       <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
         <v>3</v>
       </c>
-      <c r="R45" s="1">
-        <v>1</v>
-      </c>
       <c r="S45" s="1">
         <v>1</v>
       </c>
@@ -4100,8 +4263,11 @@
       <c r="X45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4139,23 +4305,23 @@
         <v>0</v>
       </c>
       <c r="M46" s="1">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
         <v>4</v>
       </c>
-      <c r="O46" s="1">
-        <v>0</v>
-      </c>
       <c r="P46" s="1">
         <v>0</v>
       </c>
       <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
         <v>3</v>
       </c>
-      <c r="R46" s="1">
-        <v>1</v>
-      </c>
       <c r="S46" s="1">
         <v>1</v>
       </c>
@@ -4174,8 +4340,11 @@
       <c r="X46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4213,21 +4382,21 @@
         <v>0</v>
       </c>
       <c r="M47" s="5"/>
-      <c r="N47" s="1">
+      <c r="N47" s="5">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
         <v>4</v>
       </c>
-      <c r="O47" s="1">
-        <v>0</v>
-      </c>
       <c r="P47" s="1">
         <v>0</v>
       </c>
       <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
         <v>3</v>
       </c>
-      <c r="R47" s="1">
-        <v>1</v>
-      </c>
       <c r="S47" s="1">
         <v>1</v>
       </c>
@@ -4246,8 +4415,11 @@
       <c r="X47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4285,23 +4457,23 @@
         <v>0</v>
       </c>
       <c r="M48" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
         <v>4</v>
       </c>
-      <c r="O48" s="1">
-        <v>0</v>
-      </c>
       <c r="P48" s="1">
         <v>0</v>
       </c>
       <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
         <v>6</v>
       </c>
-      <c r="R48" s="1">
-        <v>1</v>
-      </c>
       <c r="S48" s="1">
         <v>1</v>
       </c>
@@ -4320,8 +4492,11 @@
       <c r="X48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4359,23 +4534,23 @@
         <v>0</v>
       </c>
       <c r="M49" s="5">
-        <v>100</v>
-      </c>
-      <c r="N49" s="1">
+        <v>10</v>
+      </c>
+      <c r="N49" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="O49" s="1">
         <v>4</v>
       </c>
-      <c r="O49" s="1">
-        <v>0</v>
-      </c>
       <c r="P49" s="1">
         <v>0</v>
       </c>
       <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
         <v>6</v>
       </c>
-      <c r="R49" s="1">
-        <v>1</v>
-      </c>
       <c r="S49" s="1">
         <v>1</v>
       </c>
@@ -4394,8 +4569,11 @@
       <c r="X49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4433,23 +4611,23 @@
         <v>0</v>
       </c>
       <c r="M50" s="1">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
         <v>4</v>
       </c>
-      <c r="O50" s="1">
-        <v>0</v>
-      </c>
       <c r="P50" s="1">
         <v>0</v>
       </c>
       <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
         <v>4</v>
       </c>
-      <c r="R50" s="1">
-        <v>1</v>
-      </c>
       <c r="S50" s="1">
         <v>1</v>
       </c>
@@ -4468,8 +4646,11 @@
       <c r="X50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4507,23 +4688,23 @@
         <v>0</v>
       </c>
       <c r="M51" s="1">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
         <v>4</v>
       </c>
-      <c r="O51" s="1">
-        <v>0</v>
-      </c>
       <c r="P51" s="1">
         <v>0</v>
       </c>
       <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
         <v>4</v>
       </c>
-      <c r="R51" s="1">
-        <v>1</v>
-      </c>
       <c r="S51" s="1">
         <v>1</v>
       </c>
@@ -4540,424 +4721,456 @@
         <v>1</v>
       </c>
       <c r="X51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBB6D8F-4709-427A-AB8F-ADB062E73CFD}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="N1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="9">
+        <v>50000</v>
+      </c>
+      <c r="F2" s="9">
+        <v>21000</v>
+      </c>
+      <c r="G2" s="9">
+        <v>34</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="10">
+        <v>43132</v>
+      </c>
+      <c r="M2" s="10">
+        <v>43156</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="9">
+        <v>20000</v>
+      </c>
+      <c r="G3" s="9">
+        <v>67</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="10">
+        <v>43133</v>
+      </c>
+      <c r="M3" s="10">
+        <v>43154</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="9">
+        <v>12000</v>
+      </c>
+      <c r="F4" s="9">
+        <v>20000</v>
+      </c>
+      <c r="G4" s="9">
+        <v>67</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="10">
+        <v>43134</v>
+      </c>
+      <c r="M4" s="10">
+        <v>43154</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="9">
+        <v>800000</v>
+      </c>
+      <c r="F5" s="9">
+        <v>20</v>
+      </c>
+      <c r="G5" s="9">
+        <v>7</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="10">
+        <v>43135</v>
+      </c>
+      <c r="M5" s="10">
+        <v>43155</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="9">
+        <v>700000</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="9">
         <v>50</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="H6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="10">
+        <v>43136</v>
+      </c>
+      <c r="M6" s="10">
+        <v>43153</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="9">
+        <v>30000</v>
+      </c>
+      <c r="F7" s="9">
+        <v>25000</v>
+      </c>
+      <c r="G7" s="9">
+        <v>67</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="10">
+        <v>43137</v>
+      </c>
+      <c r="M7" s="10">
+        <v>43154</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="9">
+        <v>34</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="10">
+        <v>43138</v>
+      </c>
+      <c r="M8" s="10">
+        <v>43155</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="10">
-        <v>50000</v>
-      </c>
-      <c r="F2" s="10">
-        <v>21000</v>
-      </c>
-      <c r="G2" s="10">
-        <v>34</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="9">
+        <v>20000</v>
+      </c>
+      <c r="G9" s="9">
+        <v>67</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="11">
-        <v>43132</v>
-      </c>
-      <c r="M2" s="11">
+      <c r="K9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="10">
+        <v>43139</v>
+      </c>
+      <c r="M9" s="10">
         <v>43156</v>
       </c>
-      <c r="N2" s="10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="10">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="10">
-        <v>20000</v>
-      </c>
-      <c r="G3" s="10">
-        <v>67</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="11">
-        <v>43133</v>
-      </c>
-      <c r="M3" s="11">
-        <v>43154</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="10">
-        <v>12000</v>
-      </c>
-      <c r="F4" s="10">
-        <v>20000</v>
-      </c>
-      <c r="G4" s="10">
-        <v>67</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="11">
-        <v>43134</v>
-      </c>
-      <c r="M4" s="11">
-        <v>43154</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="10">
-        <v>800000</v>
-      </c>
-      <c r="F5" s="10">
-        <v>20</v>
-      </c>
-      <c r="G5" s="10">
-        <v>7</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="11">
-        <v>43135</v>
-      </c>
-      <c r="M5" s="11">
-        <v>43155</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="10">
-        <v>700000</v>
-      </c>
-      <c r="F6" s="10">
-        <v>5000</v>
-      </c>
-      <c r="G6" s="10">
-        <v>50</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="11">
-        <v>43136</v>
-      </c>
-      <c r="M6" s="11">
-        <v>43153</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="10">
-        <v>30000</v>
-      </c>
-      <c r="F7" s="10">
-        <v>25000</v>
-      </c>
-      <c r="G7" s="10">
-        <v>67</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="11">
-        <v>43137</v>
-      </c>
-      <c r="M7" s="11">
-        <v>43154</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="10">
-        <v>10000</v>
-      </c>
-      <c r="F8" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G8" s="10">
-        <v>34</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="11">
-        <v>43138</v>
-      </c>
-      <c r="M8" s="11">
-        <v>43155</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="10">
-        <v>10000</v>
-      </c>
-      <c r="F9" s="10">
-        <v>20000</v>
-      </c>
-      <c r="G9" s="10">
-        <v>67</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="11">
-        <v>43139</v>
-      </c>
-      <c r="M9" s="11">
-        <v>43156</v>
-      </c>
-      <c r="N9" s="10">
+      <c r="N9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>